--- a/HR Application/bin/Debug/test5.xlsx
+++ b/HR Application/bin/Debug/test5.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC3\Desktop\To Do\Test App\HR Application\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wissam FARHAT\Desktop\HR Application\HR Application\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02ACA38-1707-430F-AF56-0796008C9104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{161353CA-DF53-4FFD-973C-493CD85EDF82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Shadi Farhat</t>
   </si>
@@ -119,11 +119,23 @@
 3. Work more with Mohd Faraa
 4. Learn and use the Factory Calculator</t>
   </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,26 +486,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712C0968-A835-434F-BC32-E0AD4C2F4F51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -516,7 +528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -539,7 +551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -585,7 +597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -608,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -631,7 +643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -654,7 +666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -677,7 +689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -700,7 +712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -723,7 +735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -746,7 +758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -767,6 +779,229 @@
       </c>
       <c r="G12" s="2" t="s">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>79</v>
+      </c>
+      <c r="E5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>96</v>
+      </c>
+      <c r="E6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>67</v>
+      </c>
+      <c r="C7">
+        <v>84</v>
+      </c>
+      <c r="D7">
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>99</v>
+      </c>
+      <c r="D9">
+        <v>89</v>
+      </c>
+      <c r="E9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>86</v>
+      </c>
+      <c r="D10">
+        <v>72</v>
+      </c>
+      <c r="E10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>77</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
